--- a/data/trans_dic/P1418-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1418-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.001363853914840399</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.01011813456277825</v>
+        <v>0.01011813456277824</v>
       </c>
     </row>
     <row r="5">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001923597112841675</v>
+        <v>0.001919654987452432</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0009773007266347408</v>
+        <v>0.0009395007940189194</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002637673801605114</v>
+        <v>0.002672605319591396</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009505694174258736</v>
+        <v>0.008338171416156472</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01859503844832247</v>
+        <v>0.01339046395386021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04301334429562359</v>
+        <v>0.03482494145381761</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01818420123563674</v>
+        <v>0.01635764047101403</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01301834649798581</v>
+        <v>0.01147886915870076</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.04310751420357396</v>
+        <v>0.04349150625315844</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.009453234459680207</v>
+        <v>0.008623662716446785</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.006191747390255456</v>
+        <v>0.007499794644544428</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.007432866837145136</v>
+        <v>0.007523620334889408</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03048920393701916</v>
+        <v>0.02740720534905809</v>
       </c>
     </row>
     <row r="7">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003409186807696126</v>
+        <v>0.00348123251208814</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001342198585003125</v>
+        <v>0.00132922896928106</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
@@ -848,28 +848,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01588423021266904</v>
+        <v>0.01659430123214393</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003276189814613145</v>
+        <v>0.003363357930484529</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005707480449928641</v>
+        <v>0.005200308336375315</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003861873099689263</v>
+        <v>0.003675394448504826</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01055759936150166</v>
+        <v>0.01035201204772197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003055612575509652</v>
+        <v>0.002967206746304851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003332604183940913</v>
+        <v>0.003189324855513642</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.002280509267818916</v>
+        <v>0.002464788334140811</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01913044967548885</v>
+        <v>0.01938593142673799</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01133313460675442</v>
+        <v>0.0108498571015143</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0081087746102898</v>
+        <v>0.009031849393177938</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01487154997436128</v>
+        <v>0.01285192502745031</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04379955293070862</v>
+        <v>0.04337182158080009</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01930009127785792</v>
+        <v>0.01947417181755237</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02539618110935528</v>
+        <v>0.02467114531521332</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02097508027711638</v>
+        <v>0.02153418931097968</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02530548753744407</v>
+        <v>0.02567131933678081</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01254847264678815</v>
+        <v>0.01260614300311122</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01388960523371718</v>
+        <v>0.01367628418031343</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01375863133993038</v>
+        <v>0.01334837825329969</v>
       </c>
     </row>
     <row r="10">
@@ -972,38 +972,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009253435277166194</v>
+        <v>0.01018825876952796</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00130814822321408</v>
+        <v>0.001343133607430222</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.003647526376113471</v>
+        <v>0.00363705536545429</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04002609398745393</v>
+        <v>0.03843914783577718</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02637902564136941</v>
+        <v>0.02728666186650531</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01509940937378525</v>
+        <v>0.01610421879409779</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02351363832842844</v>
+        <v>0.02395729742020608</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02787876515129104</v>
+        <v>0.02789804326241955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01529504999854685</v>
+        <v>0.0164250114400002</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008188101202078898</v>
+        <v>0.008110040483333037</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0157915082282749</v>
+        <v>0.01483379762765009</v>
       </c>
     </row>
     <row r="12">
@@ -1014,38 +1014,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03295357543208074</v>
+        <v>0.03244148823595006</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01630330300743064</v>
+        <v>0.02147460961762229</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.02159136448258713</v>
+        <v>0.02084734089118186</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07395745355086777</v>
+        <v>0.0746800445925923</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05794030849294613</v>
+        <v>0.05810485723522125</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04061504438924782</v>
+        <v>0.04173620952241858</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04915393765813209</v>
+        <v>0.05052129940899654</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04957244085334191</v>
+        <v>0.04787491697005848</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03335465174381864</v>
+        <v>0.03296432058721888</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02046675750790416</v>
+        <v>0.02054938383893498</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03208686625337232</v>
+        <v>0.0299567964013683</v>
       </c>
     </row>
     <row r="13">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03309999200412463</v>
+        <v>0.03262015990052539</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008596215333645964</v>
+        <v>0.008682983746587245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007984656105658678</v>
+        <v>0.008801644695263251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02764235728314468</v>
+        <v>0.02645441262339064</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07317208532135462</v>
+        <v>0.07436505290491588</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04415976964495362</v>
+        <v>0.04415899908930512</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02435558886190153</v>
+        <v>0.02610411399263965</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0629775110814059</v>
+        <v>0.06359004260207966</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05966172291296683</v>
+        <v>0.05987355787640713</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02974040497895437</v>
+        <v>0.02901389397367821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01987915199526151</v>
+        <v>0.02025055766275366</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04879442644637107</v>
+        <v>0.04907830224189777</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07461271945972164</v>
+        <v>0.07402207117061524</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03400953120371888</v>
+        <v>0.03324961887642659</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03159006280477075</v>
+        <v>0.03170248481213109</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05994945004091004</v>
+        <v>0.05877680921117839</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1293309421865</v>
+        <v>0.1282429772250992</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0823385801464375</v>
+        <v>0.08501961661550905</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05562216100652271</v>
+        <v>0.05646477484009157</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09540239693887716</v>
+        <v>0.09557080549356399</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09269205577863263</v>
+        <v>0.09320899445216889</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05321657035180075</v>
+        <v>0.05331637004320687</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04011991049758435</v>
+        <v>0.03861179438122206</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07150010009164351</v>
+        <v>0.07148360589439759</v>
       </c>
     </row>
     <row r="16">
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08739909564599727</v>
+        <v>0.08838077653483924</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01734580101643349</v>
+        <v>0.0195351097886095</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01556074543690053</v>
+        <v>0.01542811093641052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03442350260961252</v>
+        <v>0.03511600076170637</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09226800041533888</v>
+        <v>0.0909178904741529</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09950863557783644</v>
+        <v>0.0983127937505188</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07328748661263099</v>
+        <v>0.0729099692852738</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08097374598437676</v>
+        <v>0.08198222713789137</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09521402483942594</v>
+        <v>0.0963012368912587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06586186511080554</v>
+        <v>0.06622596091898376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04903871645254674</v>
+        <v>0.04918789646207155</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06392741249977771</v>
+        <v>0.06215315969292748</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1528615492536596</v>
+        <v>0.1515570236640208</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05235364864220545</v>
+        <v>0.05306725393132879</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05080951543150881</v>
+        <v>0.04718589326602561</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0682636433759951</v>
+        <v>0.06895488710086348</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1561407942024347</v>
+        <v>0.1540137853600155</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1655531782253503</v>
+        <v>0.1644637803646171</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1291806761963944</v>
+        <v>0.1284176532501464</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.121981336219724</v>
+        <v>0.1222586441565332</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1411718985061441</v>
+        <v>0.141732220301042</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1040038949073555</v>
+        <v>0.1023936402154104</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08185911548826423</v>
+        <v>0.08136457672536825</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08981964581573981</v>
+        <v>0.08788780661441374</v>
       </c>
     </row>
     <row r="19">
@@ -1341,7 +1341,7 @@
         <v>0.06203373810871243</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.07932084736260495</v>
+        <v>0.07932084736260493</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.237823691721871</v>
@@ -1376,40 +1376,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1094233763082865</v>
+        <v>0.1129316489428917</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07224517676099962</v>
+        <v>0.07061977218307634</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03969439009161373</v>
+        <v>0.03860708758031392</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05944823101818611</v>
+        <v>0.06036166768647241</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1937547493680112</v>
+        <v>0.1951712899610779</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1649809281011992</v>
+        <v>0.1671158148197244</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1258943223098649</v>
+        <v>0.1234605239615741</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1080589077772499</v>
+        <v>0.1099696433024648</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1669014563017915</v>
+        <v>0.1650922954452649</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1322505401177699</v>
+        <v>0.1313773795003678</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09230836440107189</v>
+        <v>0.09063843010757401</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08951625078841662</v>
+        <v>0.09124062504781463</v>
       </c>
     </row>
     <row r="21">
@@ -1420,40 +1420,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1954573827125327</v>
+        <v>0.1921107509455991</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1452149723072365</v>
+        <v>0.141692817916035</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09566058802591608</v>
+        <v>0.09262899914974319</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1014754882618344</v>
+        <v>0.1022112337060176</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2779908391605595</v>
+        <v>0.2813616008375184</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2508128698090533</v>
+        <v>0.2508597558248682</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2030600511036513</v>
+        <v>0.2016418549513291</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1553871152718019</v>
+        <v>0.1568554077929458</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2258289625128563</v>
+        <v>0.2253384099354163</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1893049952692259</v>
+        <v>0.1896126611086881</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1421236257807897</v>
+        <v>0.1403837480817735</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1223989250243555</v>
+        <v>0.1244664280323601</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1949375969363767</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.220610613302574</v>
+        <v>0.2206106133025741</v>
       </c>
     </row>
     <row r="23">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1632347338312254</v>
+        <v>0.167781585057693</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1258048666507964</v>
+        <v>0.1277110091015692</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09245990534280839</v>
+        <v>0.09289014235037081</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1223562061750404</v>
+        <v>0.1243640497496408</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2625298665776987</v>
+        <v>0.2602850797413788</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3116650034696343</v>
+        <v>0.3123015196322581</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1915000921246653</v>
+        <v>0.1949127273247975</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2335883324962034</v>
+        <v>0.2361786376871152</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2376003754603389</v>
+        <v>0.2407324184674177</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2511360165735219</v>
+        <v>0.2499735429783105</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1672778122127501</v>
+        <v>0.1625231550203271</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1984561567403721</v>
+        <v>0.1996054290038864</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2686313894232417</v>
+        <v>0.2761895069574302</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2280987171554663</v>
+        <v>0.2324817748891341</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1715576927115314</v>
+        <v>0.172551732122657</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.192902656601311</v>
+        <v>0.1912070254418482</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3727134129272195</v>
+        <v>0.3664315055021173</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4106178230071505</v>
+        <v>0.4085418117216168</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2834007677383512</v>
+        <v>0.2859269430481544</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2944318759891761</v>
+        <v>0.296527204747124</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.316081085688675</v>
+        <v>0.3175472377098603</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3260617010273716</v>
+        <v>0.3205136417972174</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2302459881324228</v>
+        <v>0.2281304513538722</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2438416892227657</v>
+        <v>0.245295342227243</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.04825477660544995</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.06597369215231894</v>
+        <v>0.06597369215231895</v>
       </c>
     </row>
     <row r="26">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04694640332685313</v>
+        <v>0.04708071442919359</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02544235998302219</v>
+        <v>0.02580217207848792</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01925639087437507</v>
+        <v>0.01873875751170737</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03562357527453462</v>
+        <v>0.03612528513353642</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09103075032187732</v>
+        <v>0.09155668408846129</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08714138554950125</v>
+        <v>0.08702727734588986</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06120543468530249</v>
+        <v>0.06223484068968935</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0811544810072912</v>
+        <v>0.08116516470477296</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07144356442974042</v>
+        <v>0.07167498521495064</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.05941895951808796</v>
+        <v>0.05880016043080721</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04311381340881379</v>
+        <v>0.04356867484366349</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06108403310621778</v>
+        <v>0.06161691223665149</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06311103665684875</v>
+        <v>0.06360439387234765</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03798949828198563</v>
+        <v>0.03780106521180109</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03037327066976976</v>
+        <v>0.02947860663555106</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04884153538639274</v>
+        <v>0.04939330593172553</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1123433959369891</v>
+        <v>0.1126422731976497</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1078140056600563</v>
+        <v>0.1069975834415899</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.07969049438685875</v>
+        <v>0.08095498076283243</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09561634275867957</v>
+        <v>0.09642768722399776</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08485909684550449</v>
+        <v>0.08497066717122505</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.07205945094544505</v>
+        <v>0.0713043782502495</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.05383527573786068</v>
+        <v>0.05381226858868261</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07108793492571847</v>
+        <v>0.07153012424160966</v>
       </c>
     </row>
     <row r="28">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2032</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="7">
@@ -2039,36 +2039,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4696</v>
+        <v>4120</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>7800</v>
+        <v>5617</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17541</v>
+        <v>14201</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8501</v>
+        <v>7647</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5601</v>
+        <v>4939</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>15627</v>
+        <v>15766</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9090</v>
+        <v>8292</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>5476</v>
+        <v>6633</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6059</v>
+        <v>6133</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23486</v>
+        <v>21112</v>
       </c>
     </row>
     <row r="8">
@@ -2171,10 +2171,10 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2507</v>
+        <v>2560</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
@@ -2183,28 +2183,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9935</v>
+        <v>10380</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1999</v>
+        <v>2053</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3216</v>
+        <v>2931</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1932</v>
+        <v>1838</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14369</v>
+        <v>14089</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3964</v>
+        <v>3849</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3846</v>
+        <v>3681</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2228</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="11">
@@ -2215,40 +2215,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14070</v>
+        <v>14258</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7787</v>
+        <v>7455</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4788</v>
+        <v>5333</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7092</v>
+        <v>6129</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27396</v>
+        <v>27129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11778</v>
+        <v>11884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14312</v>
+        <v>13903</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10491</v>
+        <v>10771</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>34440</v>
+        <v>34938</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>16280</v>
+        <v>16354</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>16029</v>
+        <v>15783</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13443</v>
+        <v>13042</v>
       </c>
     </row>
     <row r="12">
@@ -2351,38 +2351,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5910</v>
+        <v>6507</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>892</v>
+        <v>916</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27608</v>
+        <v>26513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18718</v>
+        <v>19362</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9987</v>
+        <v>10651</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14600</v>
+        <v>14876</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37034</v>
+        <v>37060</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21282</v>
+        <v>22854</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10894</v>
+        <v>10790</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19569</v>
+        <v>18383</v>
       </c>
     </row>
     <row r="15">
@@ -2393,38 +2393,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21046</v>
+        <v>20719</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11117</v>
+        <v>14643</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>13350</v>
+        <v>12890</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>51012</v>
+        <v>51510</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41113</v>
+        <v>41230</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26862</v>
+        <v>27604</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30521</v>
+        <v>31370</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65853</v>
+        <v>63598</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>46411</v>
+        <v>45868</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>27231</v>
+        <v>27341</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>39763</v>
+        <v>37124</v>
       </c>
     </row>
     <row r="16">
@@ -2527,40 +2527,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17184</v>
+        <v>16935</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5283</v>
+        <v>5337</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5158</v>
+        <v>5686</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19336</v>
+        <v>18505</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>37731</v>
+        <v>38346</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27080</v>
+        <v>27079</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15809</v>
+        <v>16944</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>46202</v>
+        <v>46651</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>61737</v>
+        <v>61956</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>36516</v>
+        <v>35624</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>25746</v>
+        <v>26227</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>69930</v>
+        <v>70336</v>
       </c>
     </row>
     <row r="19">
@@ -2571,40 +2571,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38735</v>
+        <v>38428</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20903</v>
+        <v>20436</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20409</v>
+        <v>20481</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>41936</v>
+        <v>41116</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>66688</v>
+        <v>66127</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50491</v>
+        <v>52135</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36103</v>
+        <v>36650</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>69989</v>
+        <v>70113</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>95917</v>
+        <v>96452</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>65341</v>
+        <v>65464</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>51960</v>
+        <v>50007</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>102470</v>
+        <v>102446</v>
       </c>
     </row>
     <row r="20">
@@ -2707,40 +2707,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33798</v>
+        <v>34178</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7449</v>
+        <v>8389</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7437</v>
+        <v>7373</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>20942</v>
+        <v>21363</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>37275</v>
+        <v>36730</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>44560</v>
+        <v>44024</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>36413</v>
+        <v>36225</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>49075</v>
+        <v>49686</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>75285</v>
+        <v>76145</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>57776</v>
+        <v>58095</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>47801</v>
+        <v>47947</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>77635</v>
+        <v>75480</v>
       </c>
     </row>
     <row r="23">
@@ -2751,40 +2751,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59113</v>
+        <v>58609</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22482</v>
+        <v>22789</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24283</v>
+        <v>22551</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>41529</v>
+        <v>41949</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>63079</v>
+        <v>62219</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>74135</v>
+        <v>73647</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>64183</v>
+        <v>63804</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>73928</v>
+        <v>74096</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>111624</v>
+        <v>112067</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>91235</v>
+        <v>89823</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>79794</v>
+        <v>79312</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>109079</v>
+        <v>106732</v>
       </c>
     </row>
     <row r="24">
@@ -2887,40 +2887,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>32015</v>
+        <v>33042</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>22381</v>
+        <v>21877</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13271</v>
+        <v>12908</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>24149</v>
+        <v>24520</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>66445</v>
+        <v>66931</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>58403</v>
+        <v>59158</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>47558</v>
+        <v>46639</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>47351</v>
+        <v>48188</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>106069</v>
+        <v>104919</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>87786</v>
+        <v>87206</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>65732</v>
+        <v>64543</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>75588</v>
+        <v>77044</v>
       </c>
     </row>
     <row r="27">
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>57188</v>
+        <v>56208</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>44986</v>
+        <v>43894</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>31982</v>
+        <v>30969</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>41220</v>
+        <v>41519</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>95333</v>
+        <v>96488</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>88787</v>
+        <v>88803</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>76708</v>
+        <v>76173</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>68090</v>
+        <v>68733</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>143518</v>
+        <v>143206</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>125657</v>
+        <v>125861</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>101205</v>
+        <v>99966</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>103354</v>
+        <v>105100</v>
       </c>
     </row>
     <row r="28">
@@ -3067,40 +3067,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>34260</v>
+        <v>35215</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>31432</v>
+        <v>31909</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>23762</v>
+        <v>23873</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>37955</v>
+        <v>38577</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>87661</v>
+        <v>86911</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>121231</v>
+        <v>121479</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>76632</v>
+        <v>77998</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>108374</v>
+        <v>109576</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>129205</v>
+        <v>130908</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>160433</v>
+        <v>159691</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>109929</v>
+        <v>106805</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>153635</v>
+        <v>154525</v>
       </c>
     </row>
     <row r="31">
@@ -3111,40 +3111,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>56381</v>
+        <v>57967</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>56991</v>
+        <v>58086</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>44090</v>
+        <v>44345</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>59838</v>
+        <v>59312</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>124452</v>
+        <v>122354</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>159722</v>
+        <v>158914</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>113408</v>
+        <v>114419</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>136603</v>
+        <v>137575</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>171882</v>
+        <v>172679</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>208298</v>
+        <v>204754</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>151310</v>
+        <v>149920</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>188771</v>
+        <v>189896</v>
       </c>
     </row>
     <row r="32">
@@ -3247,40 +3247,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>153822</v>
+        <v>154262</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>87185</v>
+        <v>88418</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>65363</v>
+        <v>63606</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>125654</v>
+        <v>127424</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>307611</v>
+        <v>309388</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>309705</v>
+        <v>309299</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>216945</v>
+        <v>220594</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>302336</v>
+        <v>302376</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>475510</v>
+        <v>477050</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>414794</v>
+        <v>410474</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>299162</v>
+        <v>302318</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>443025</v>
+        <v>446890</v>
       </c>
     </row>
     <row r="35">
@@ -3291,40 +3291,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>206786</v>
+        <v>208403</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>130182</v>
+        <v>129536</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>103098</v>
+        <v>100061</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>172278</v>
+        <v>174224</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>379630</v>
+        <v>380640</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>383177</v>
+        <v>380275</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>282466</v>
+        <v>286948</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>356213</v>
+        <v>359236</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>564800</v>
+        <v>565543</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>503035</v>
+        <v>497764</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>373557</v>
+        <v>373398</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>515581</v>
+        <v>518788</v>
       </c>
     </row>
     <row r="36">
